--- a/Observable Properties.xlsx
+++ b/Observable Properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charith\Dropbox\ResearchWork\Collabarations\USB\usb-knowledge-base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F794DE6-B33C-4C1B-B8C3-976427570312}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AEEAA2-CC19-4B0C-8DF3-8BAA1B0DCD57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{CFB73365-99FB-4D83-8D40-2CF3B4170958}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t>Fire alarm</t>
   </si>
@@ -438,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +463,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,6 +491,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EEAB6F-8238-49CB-A415-4109FA0F5F9B}">
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,132 +857,135 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
     </row>

--- a/Observable Properties.xlsx
+++ b/Observable Properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charith\Dropbox\ResearchWork\Collabarations\USB\usb-knowledge-base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AEEAA2-CC19-4B0C-8DF3-8BAA1B0DCD57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8876CC8-1E8D-4CB1-816B-71E474B2B128}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{CFB73365-99FB-4D83-8D40-2CF3B4170958}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
   <si>
     <t>Fire alarm</t>
   </si>
@@ -363,9 +363,6 @@
     <t>Max Room Temp</t>
   </si>
   <si>
-    <t>Holiday SWitch</t>
-  </si>
-  <si>
     <t>Pump Change Over Requested</t>
   </si>
   <si>
@@ -415,6 +412,45 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Fan Speed</t>
+  </si>
+  <si>
+    <t>Fire Alarm</t>
+  </si>
+  <si>
+    <t>Holiday Switch</t>
+  </si>
+  <si>
+    <t>Flow Temperature</t>
+  </si>
+  <si>
+    <t>Heating Index Pressure</t>
+  </si>
+  <si>
+    <t>L1 to N</t>
+  </si>
+  <si>
+    <t>L2 to N</t>
+  </si>
+  <si>
+    <t>L3 to N</t>
+  </si>
+  <si>
+    <t>On Off Mode</t>
+  </si>
+  <si>
+    <t>PIR</t>
+  </si>
+  <si>
+    <t>Return Temperature</t>
+  </si>
+  <si>
+    <t>Toilet Solenoild Valve</t>
   </si>
 </sst>
 </file>
@@ -438,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,7 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,8 +524,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,6 +535,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EEAB6F-8238-49CB-A415-4109FA0F5F9B}">
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A33"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,567 +863,645 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B105" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B106" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="6"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="6"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="6"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>18</v>
       </c>
